--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H2">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.32054952176139</v>
+        <v>124.722578</v>
       </c>
       <c r="N2">
-        <v>81.32054952176139</v>
+        <v>374.167734</v>
       </c>
       <c r="O2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q2">
-        <v>454.8009267810901</v>
+        <v>1303.963993145063</v>
       </c>
       <c r="R2">
-        <v>454.8009267810901</v>
+        <v>11735.67593830556</v>
       </c>
       <c r="S2">
-        <v>0.007051864975355269</v>
+        <v>0.01314419673063983</v>
       </c>
       <c r="T2">
-        <v>0.007051864975355269</v>
+        <v>0.01314419673063983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H3">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.70704473215213</v>
+        <v>0.134712</v>
       </c>
       <c r="N3">
-        <v>2.70704473215213</v>
+        <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q3">
-        <v>15.1396720787185</v>
+        <v>1.408402554384</v>
       </c>
       <c r="R3">
-        <v>15.1396720787185</v>
+        <v>12.675622989456</v>
       </c>
       <c r="S3">
-        <v>0.0002347464945287314</v>
+        <v>1.419695662462936E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002347464945287314</v>
+        <v>1.419695662462936E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>731.088096626592</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H4">
-        <v>731.088096626592</v>
+        <v>31.364746</v>
       </c>
       <c r="I4">
-        <v>0.9525204087980228</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J4">
-        <v>0.9525204087980228</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.32054952176139</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>81.32054952176139</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q4">
-        <v>59452.48576649305</v>
+        <v>29.65618631136778</v>
       </c>
       <c r="R4">
-        <v>59452.48576649305</v>
+        <v>266.90567680231</v>
       </c>
       <c r="S4">
-        <v>0.921833878048227</v>
+        <v>0.0002989398090793454</v>
       </c>
       <c r="T4">
-        <v>0.921833878048227</v>
+        <v>0.0002989398090793454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H5">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.70704473215213</v>
+        <v>124.722578</v>
       </c>
       <c r="N5">
-        <v>2.70704473215213</v>
+        <v>374.167734</v>
       </c>
       <c r="O5">
-        <v>0.0322161399024708</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P5">
-        <v>0.0322161399024708</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q5">
-        <v>1979.088180712143</v>
+        <v>91733.36985255023</v>
       </c>
       <c r="R5">
-        <v>1979.088180712143</v>
+        <v>825600.328672952</v>
       </c>
       <c r="S5">
-        <v>0.03068653074979578</v>
+        <v>0.9246892294918811</v>
       </c>
       <c r="T5">
-        <v>0.03068653074979578</v>
+        <v>0.9246892294918811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8493222598426</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H6">
-        <v>30.8493222598426</v>
+        <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J6">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>81.32054952176139</v>
+        <v>0.134712</v>
       </c>
       <c r="N6">
-        <v>81.32054952176139</v>
+        <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.9677838600975293</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P6">
-        <v>0.9677838600975293</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q6">
-        <v>2508.683838544307</v>
+        <v>99.08058282420001</v>
       </c>
       <c r="R6">
-        <v>2508.683838544307</v>
+        <v>891.7252454178</v>
       </c>
       <c r="S6">
-        <v>0.03889811707394693</v>
+        <v>0.000998750486726712</v>
       </c>
       <c r="T6">
-        <v>0.03889811707394693</v>
+        <v>0.000998750486726712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8493222598426</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H7">
-        <v>30.8493222598426</v>
+        <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J7">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.70704473215213</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>2.70704473215213</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.0322161399024708</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P7">
-        <v>0.0322161399024708</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q7">
-        <v>83.51049531397035</v>
+        <v>2086.301402199986</v>
       </c>
       <c r="R7">
-        <v>83.51049531397035</v>
+        <v>18776.71261979987</v>
       </c>
       <c r="S7">
-        <v>0.001294862658146288</v>
+        <v>0.02103030161422228</v>
       </c>
       <c r="T7">
-        <v>0.001294862658146288</v>
+        <v>0.02103030161422228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>30.939307</v>
+      </c>
+      <c r="H8">
+        <v>92.81792100000001</v>
+      </c>
+      <c r="I8">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="J8">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>124.722578</v>
+      </c>
+      <c r="N8">
+        <v>374.167734</v>
+      </c>
+      <c r="O8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="P8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="Q8">
+        <v>3858.830130573446</v>
+      </c>
+      <c r="R8">
+        <v>34729.47117516102</v>
+      </c>
+      <c r="S8">
+        <v>0.03889771700217135</v>
+      </c>
+      <c r="T8">
+        <v>0.03889771700217135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>30.939307</v>
+      </c>
+      <c r="H9">
+        <v>92.81792100000001</v>
+      </c>
+      <c r="I9">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="J9">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.134712</v>
+      </c>
+      <c r="N9">
+        <v>0.404136</v>
+      </c>
+      <c r="O9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="P9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="Q9">
+        <v>4.167895924584</v>
+      </c>
+      <c r="R9">
+        <v>37.511063321256</v>
+      </c>
+      <c r="S9">
+        <v>4.201315701473479E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.201315701473479E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30.939307</v>
+      </c>
+      <c r="H10">
+        <v>92.81792100000001</v>
+      </c>
+      <c r="I10">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="J10">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.836578333333333</v>
+      </c>
+      <c r="N10">
+        <v>8.509734999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="P10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="Q10">
+        <v>87.76176788454833</v>
+      </c>
+      <c r="R10">
+        <v>789.855910960935</v>
+      </c>
+      <c r="S10">
+        <v>0.0008846547516400026</v>
+      </c>
+      <c r="T10">
+        <v>0.0008846547516400026</v>
       </c>
     </row>
   </sheetData>
